--- a/etc/product/products.xlsx
+++ b/etc/product/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t xml:space="preserve">category_id</t>
   </si>
@@ -137,6 +137,36 @@
   </si>
   <si>
     <t xml:space="preserve">Стильный кардиган свободного силуэта с отворотами, выполненный из качественного материала. Модель с укороченным рукавом, без застежки. Отличный вариант для повседневного гардероба!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpg, 3-1.jpg, 3-2.jpg, 3-3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье Миранда бежевое</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Невероятно легкая, стильная одежда для настоящих модниц. Украсьте свое лето с яркой одеждой производителя качественной современной одежды!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бежевый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S:10,M:3,L:5,XL:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вискоза:40,полиэстер:55,шерсть:5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Украина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ткань - французский трикотаж, турецкая двунитка. Сзади потайная змейка. Длина - 105см.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,6 +203,12 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -218,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -228,6 +264,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,18 +288,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE4" activeCellId="0" sqref="AE4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="50.9897959183674"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="30" min="28" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,6 +401,12 @@
       <c r="AE1" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -467,6 +518,65 @@
       </c>
       <c r="AE3" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>51300</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>34569</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
